--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N2">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q2">
-        <v>97.22447886365066</v>
+        <v>4.527832805203667</v>
       </c>
       <c r="R2">
-        <v>875.020309772856</v>
+        <v>40.750495246833</v>
       </c>
       <c r="S2">
-        <v>0.008447124401645963</v>
+        <v>0.000455214311378077</v>
       </c>
       <c r="T2">
-        <v>0.008718050039544666</v>
+        <v>0.0004620977517658628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N3">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q3">
-        <v>738.8102180335413</v>
+        <v>89.94131942190457</v>
       </c>
       <c r="R3">
-        <v>6649.291962301872</v>
+        <v>809.471874797141</v>
       </c>
       <c r="S3">
-        <v>0.06418982023743981</v>
+        <v>0.009042422179993971</v>
       </c>
       <c r="T3">
-        <v>0.06624858806984472</v>
+        <v>0.009179155521809942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.55429333333333</v>
+        <v>18.813815</v>
       </c>
       <c r="N4">
-        <v>49.66287999999999</v>
+        <v>56.441445</v>
       </c>
       <c r="O4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q4">
-        <v>1599.476748907093</v>
+        <v>1681.619692205082</v>
       </c>
       <c r="R4">
-        <v>14395.29074016384</v>
+        <v>15134.57722984574</v>
       </c>
       <c r="S4">
-        <v>0.1389668449085389</v>
+        <v>0.1690648447326043</v>
       </c>
       <c r="T4">
-        <v>0.1434239452557624</v>
+        <v>0.1716213280225609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.3539896666667</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>367.061969</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2679626668787852</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2765570657541026</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.006255666666667</v>
+        <v>3.983073</v>
       </c>
       <c r="N5">
-        <v>3.018767</v>
+        <v>11.949219</v>
       </c>
       <c r="O5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q5">
-        <v>123.1193954413581</v>
+        <v>356.015725268393</v>
       </c>
       <c r="R5">
-        <v>1108.074558972223</v>
+        <v>3204.141527415537</v>
       </c>
       <c r="S5">
-        <v>0.01069694444962895</v>
+        <v>0.03579272031236772</v>
       </c>
       <c r="T5">
-        <v>0.01104002883678654</v>
+        <v>0.03633395342044161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>367.061969</v>
       </c>
       <c r="I6">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J6">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.646551333333334</v>
+        <v>0.050657</v>
       </c>
       <c r="N6">
-        <v>22.939654</v>
+        <v>0.151971</v>
       </c>
       <c r="O6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q6">
-        <v>935.586062824303</v>
+        <v>6.198086054544333</v>
       </c>
       <c r="R6">
-        <v>8420.274565418726</v>
+        <v>55.78277449089899</v>
       </c>
       <c r="S6">
-        <v>0.0812862352515807</v>
+        <v>0.0006231364090871171</v>
       </c>
       <c r="T6">
-        <v>0.08389333846100273</v>
+        <v>0.0006325590529236541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.55429333333333</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N7">
-        <v>49.66287999999999</v>
+        <v>3.018767</v>
       </c>
       <c r="O7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q7">
-        <v>2025.483835445635</v>
+        <v>123.1193954413581</v>
       </c>
       <c r="R7">
-        <v>18229.35451901072</v>
+        <v>1108.074558972223</v>
       </c>
       <c r="S7">
-        <v>0.1759794871775756</v>
+        <v>0.01237804336518605</v>
       </c>
       <c r="T7">
-        <v>0.1816236984563133</v>
+        <v>0.01256521569587079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.74384566666667</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>251.231537</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.1834041070557659</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.1892864490617203</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.006255666666667</v>
+        <v>18.813815</v>
       </c>
       <c r="N8">
-        <v>3.018767</v>
+        <v>56.441445</v>
       </c>
       <c r="O8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q8">
-        <v>84.26771925054211</v>
+        <v>2301.945326100578</v>
       </c>
       <c r="R8">
-        <v>758.409473254879</v>
+        <v>20717.5079349052</v>
       </c>
       <c r="S8">
-        <v>0.007321406253568863</v>
+        <v>0.2314304660822659</v>
       </c>
       <c r="T8">
-        <v>0.007556226597777027</v>
+        <v>0.2349299997686566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.74384566666667</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>251.231537</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.1834041070557659</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.1892864490617203</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.646551333333334</v>
+        <v>3.983073</v>
       </c>
       <c r="N9">
-        <v>22.939654</v>
+        <v>11.949219</v>
       </c>
       <c r="O9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q9">
-        <v>640.351614740911</v>
+        <v>487.344872683579</v>
       </c>
       <c r="R9">
-        <v>5763.164532668198</v>
+        <v>4386.10385415221</v>
       </c>
       <c r="S9">
-        <v>0.05563547178377993</v>
+        <v>0.04899614675862863</v>
       </c>
       <c r="T9">
-        <v>0.057419874968357</v>
+        <v>0.0497370330774775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H10">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I10">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J10">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>16.55429333333333</v>
+        <v>0.050657</v>
       </c>
       <c r="N10">
-        <v>49.66287999999999</v>
+        <v>0.151971</v>
       </c>
       <c r="O10">
-        <v>0.6567313619743199</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P10">
-        <v>0.6567313619743199</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q10">
-        <v>1386.320186027395</v>
+        <v>4.576081115510667</v>
       </c>
       <c r="R10">
-        <v>12476.88167424656</v>
+        <v>41.184730039596</v>
       </c>
       <c r="S10">
-        <v>0.1204472290184171</v>
+        <v>0.0004600650473253751</v>
       </c>
       <c r="T10">
-        <v>0.1243103474955863</v>
+        <v>0.0004670218372342447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.569235</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H11">
-        <v>85.13847</v>
+        <v>271.003876</v>
       </c>
       <c r="I11">
-        <v>0.09322920951467238</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J11">
-        <v>0.06414624078364733</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,27 +1122,27 @@
         <v>3.018767</v>
       </c>
       <c r="O11">
-        <v>0.03991953272530977</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P11">
-        <v>0.03991953272530977</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q11">
-        <v>42.835533944415</v>
+        <v>90.89972863787689</v>
       </c>
       <c r="R11">
-        <v>257.01320366649</v>
+        <v>818.0975577408919</v>
       </c>
       <c r="S11">
-        <v>0.003721666480175725</v>
+        <v>0.009138777679420946</v>
       </c>
       <c r="T11">
-        <v>0.00256068795816841</v>
+        <v>0.009276968043390578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.569235</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>85.13847</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.09322920951467238</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.06414624078364733</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.646551333333334</v>
+        <v>18.813815</v>
       </c>
       <c r="N12">
-        <v>22.939654</v>
+        <v>56.441445</v>
       </c>
       <c r="O12">
-        <v>0.3033491053003704</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P12">
-        <v>0.3033491053003704</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q12">
-        <v>325.50784064823</v>
+        <v>1699.538929115647</v>
       </c>
       <c r="R12">
-        <v>1953.04704388938</v>
+        <v>15295.85036204082</v>
       </c>
       <c r="S12">
-        <v>0.02828099729413665</v>
+        <v>0.1708663894100687</v>
       </c>
       <c r="T12">
-        <v>0.01945870475010155</v>
+        <v>0.1734501144300925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.569235</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>85.13847</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.09322920951467238</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.06414624078364733</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.55429333333333</v>
+        <v>3.983073</v>
       </c>
       <c r="N13">
-        <v>49.66287999999999</v>
+        <v>11.949219</v>
       </c>
       <c r="O13">
-        <v>0.6567313619743199</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P13">
-        <v>0.6567313619743199</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q13">
-        <v>704.7036031655998</v>
+        <v>359.8094071303159</v>
       </c>
       <c r="R13">
-        <v>4228.2216189936</v>
+        <v>3238.284664172844</v>
       </c>
       <c r="S13">
-        <v>0.06122654574036002</v>
+        <v>0.03617412535770818</v>
       </c>
       <c r="T13">
-        <v>0.04212684807537738</v>
+        <v>0.03672112581278234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>111.321218</v>
+        <v>18.634161</v>
       </c>
       <c r="H14">
-        <v>333.963654</v>
+        <v>37.268322</v>
       </c>
       <c r="I14">
-        <v>0.2438002270031519</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J14">
-        <v>0.2516196610353779</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N14">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O14">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P14">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q14">
-        <v>112.0176064327353</v>
+        <v>0.9439506937769999</v>
       </c>
       <c r="R14">
-        <v>1008.158457894618</v>
+        <v>5.663704162661999</v>
       </c>
       <c r="S14">
-        <v>0.009732391140290272</v>
+        <v>9.490188430737047E-05</v>
       </c>
       <c r="T14">
-        <v>0.01004453929303312</v>
+        <v>6.422461725631342E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>111.321218</v>
+        <v>18.634161</v>
       </c>
       <c r="H15">
-        <v>333.963654</v>
+        <v>37.268322</v>
       </c>
       <c r="I15">
-        <v>0.2438002270031519</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J15">
-        <v>0.2516196610353779</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N15">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O15">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P15">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q15">
-        <v>851.2234079261907</v>
+        <v>18.750730099829</v>
       </c>
       <c r="R15">
-        <v>7661.010671335716</v>
+        <v>112.504380598974</v>
       </c>
       <c r="S15">
-        <v>0.07395658073343332</v>
+        <v>0.001885140431956807</v>
       </c>
       <c r="T15">
-        <v>0.07632859905106434</v>
+        <v>0.001275764160010723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.634161</v>
+      </c>
+      <c r="H16">
+        <v>37.268322</v>
+      </c>
+      <c r="I16">
+        <v>0.0446882095496985</v>
+      </c>
+      <c r="J16">
+        <v>0.03024263611988591</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.813815</v>
+      </c>
+      <c r="N16">
+        <v>56.441445</v>
+      </c>
+      <c r="O16">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="P16">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="Q16">
+        <v>350.579657734215</v>
+      </c>
+      <c r="R16">
+        <v>2103.47794640529</v>
+      </c>
+      <c r="S16">
+        <v>0.03524619488935925</v>
+      </c>
+      <c r="T16">
+        <v>0.02385277587512265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.634161</v>
+      </c>
+      <c r="H17">
+        <v>37.268322</v>
+      </c>
+      <c r="I17">
+        <v>0.0446882095496985</v>
+      </c>
+      <c r="J17">
+        <v>0.03024263611988591</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.983073</v>
+      </c>
+      <c r="N17">
+        <v>11.949219</v>
+      </c>
+      <c r="O17">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P17">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q17">
+        <v>74.22122355675299</v>
+      </c>
+      <c r="R17">
+        <v>445.3273413405179</v>
+      </c>
+      <c r="S17">
+        <v>0.007461972344075074</v>
+      </c>
+      <c r="T17">
+        <v>0.005049871467496221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>111.321218</v>
-      </c>
-      <c r="H16">
-        <v>333.963654</v>
-      </c>
-      <c r="I16">
-        <v>0.2438002270031519</v>
-      </c>
-      <c r="J16">
-        <v>0.2516196610353779</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.55429333333333</v>
-      </c>
-      <c r="N16">
-        <v>49.66287999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="P16">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="Q16">
-        <v>1842.844096995946</v>
-      </c>
-      <c r="R16">
-        <v>16585.59687296352</v>
-      </c>
-      <c r="S16">
-        <v>0.1601112551294283</v>
-      </c>
-      <c r="T16">
-        <v>0.1652465226912804</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>96.27664699999998</v>
+      </c>
+      <c r="H18">
+        <v>288.829941</v>
+      </c>
+      <c r="I18">
+        <v>0.2308894388042666</v>
+      </c>
+      <c r="J18">
+        <v>0.2343807914451077</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.050657</v>
+      </c>
+      <c r="N18">
+        <v>0.151971</v>
+      </c>
+      <c r="O18">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="P18">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="Q18">
+        <v>4.877086107078999</v>
+      </c>
+      <c r="R18">
+        <v>43.893774963711</v>
+      </c>
+      <c r="S18">
+        <v>0.0004903271585501245</v>
+      </c>
+      <c r="T18">
+        <v>0.000497741551467989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>96.27664699999998</v>
+      </c>
+      <c r="H19">
+        <v>288.829941</v>
+      </c>
+      <c r="I19">
+        <v>0.2308894388042666</v>
+      </c>
+      <c r="J19">
+        <v>0.2343807914451077</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.006255666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.018767</v>
+      </c>
+      <c r="O19">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="P19">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="Q19">
+        <v>96.87892161141632</v>
+      </c>
+      <c r="R19">
+        <v>871.9102945027469</v>
+      </c>
+      <c r="S19">
+        <v>0.009739907254903131</v>
+      </c>
+      <c r="T19">
+        <v>0.009887187490378866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>96.27664699999998</v>
+      </c>
+      <c r="H20">
+        <v>288.829941</v>
+      </c>
+      <c r="I20">
+        <v>0.2308894388042666</v>
+      </c>
+      <c r="J20">
+        <v>0.2343807914451077</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.813815</v>
+      </c>
+      <c r="N20">
+        <v>56.441445</v>
+      </c>
+      <c r="O20">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="P20">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="Q20">
+        <v>1811.331025478305</v>
+      </c>
+      <c r="R20">
+        <v>16301.97922930474</v>
+      </c>
+      <c r="S20">
+        <v>0.1821056211468841</v>
+      </c>
+      <c r="T20">
+        <v>0.1848592981647497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>96.27664699999998</v>
+      </c>
+      <c r="H21">
+        <v>288.829941</v>
+      </c>
+      <c r="I21">
+        <v>0.2308894388042666</v>
+      </c>
+      <c r="J21">
+        <v>0.2343807914451077</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.983073</v>
+      </c>
+      <c r="N21">
+        <v>11.949219</v>
+      </c>
+      <c r="O21">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P21">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q21">
+        <v>383.4769131962309</v>
+      </c>
+      <c r="R21">
+        <v>3451.292218766078</v>
+      </c>
+      <c r="S21">
+        <v>0.03855358324392916</v>
+      </c>
+      <c r="T21">
+        <v>0.03913656423851111</v>
       </c>
     </row>
   </sheetData>
